--- a/data/split_label.xlsx
+++ b/data/split_label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\segmentation-pytorch\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BFB22-3AA3-4F70-9A20-10A25A9BD4D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="split_label" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">train!$A$1:$R$431</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">vaild!$A$1:$R$16</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -557,14 +570,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,340 +584,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -918,260 +611,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,68 +628,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1261,7 +659,295 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>split_label!$C$165:$Q$165</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.8180367225366606E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27680246367171668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19620072837547489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6862407968358493E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5307055200088786E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3017986025081847E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.647314667998078E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1482663425616868E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8165584790353141E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22550574473301382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0312242796917133E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.587538156332961E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6839090929767037E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6319323026522908E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4706398094040188E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B26-4C89-A436-BE1BFDBBADDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="459328207"/>
+        <c:axId val="188114799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="459328207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188114799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188114799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459328207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1287,6 +973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1310,9 +997,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>train!$C$502:$Q$502</c:f>
@@ -1320,53 +1004,58 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0515004122137948</c:v>
+                  <c:v>5.1500412213794824E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.166111510282476</c:v>
+                  <c:v>0.16611151028247639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.154502379005279</c:v>
+                  <c:v>0.15450237900527905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0333717068208305</c:v>
+                  <c:v>3.3371706820830453E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0491689667772736</c:v>
+                  <c:v>4.9168966777273601E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0232385295741626</c:v>
+                  <c:v>2.3238529574162562E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.031695442859555</c:v>
+                  <c:v>3.1695442859555015E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0271440133063713</c:v>
+                  <c:v>2.7144013306371267E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0231094464298186</c:v>
+                  <c:v>2.3109446429818558E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30757800779288</c:v>
+                  <c:v>0.30757800779288047</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0410679024955415</c:v>
+                  <c:v>4.1067902495541507E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0206443457428787</c:v>
+                  <c:v>2.0644345742878704E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0203556351351159</c:v>
+                  <c:v>2.0355635135115919E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0287403780574324</c:v>
+                  <c:v>2.8740378057432434E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0217713235065892</c:v>
+                  <c:v>2.1771323506589238E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A6D-447F-BCB8-BAAF9AA8BC23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1422,6 +1111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69343376"/>
@@ -1480,6 +1170,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237581936"/>
@@ -1520,6 +1211,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1530,8 +1222,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1545,7 +1237,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1571,6 +1262,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1594,9 +1286,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>vaild!$C$21:$Q$21</c:f>
@@ -1604,53 +1293,58 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0243784132116926</c:v>
+                  <c:v>2.4378413211692571E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123801842293319</c:v>
+                  <c:v>0.12380184229331931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.347444096730169</c:v>
+                  <c:v>0.34744409673016852</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0128033205873463</c:v>
+                  <c:v>1.280332058734626E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0137863450048806</c:v>
+                  <c:v>1.3786345004880643E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00701325460650688</c:v>
+                  <c:v>7.0132546065068812E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0342236869896069</c:v>
+                  <c:v>3.4223686989606851E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0297558723972596</c:v>
+                  <c:v>2.9755872397259627E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0446027768870528</c:v>
+                  <c:v>4.4602776887052803E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.199727858102163</c:v>
+                  <c:v>0.19972785810216256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0688008790726134</c:v>
+                  <c:v>6.8800879072613397E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0157467798413422</c:v>
+                  <c:v>1.574677984134221E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0163413332371439</c:v>
+                  <c:v>1.6341333237143877E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0278851289243729</c:v>
+                  <c:v>2.7885128924372896E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0336884121145316</c:v>
+                  <c:v>3.3688412114531587E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06D1-49AB-842B-31298C8BC133}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1706,6 +1400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224523152"/>
@@ -1764,6 +1459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237578736"/>
@@ -1804,6 +1500,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1855,6 +1552,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2900,8 +2637,552 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>173830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>164306</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>97630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F3B4B1-14F6-409D-AD78-1944F667EBFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2915,14 +3196,20 @@
       <xdr:row>520</xdr:row>
       <xdr:rowOff>140493</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7210425" y="96209485"/>
-        <a:ext cx="4876800" cy="2957830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2935,8 +3222,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2950,14 +3237,20 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>173831</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7465060" y="4264660"/>
-        <a:ext cx="4838700" cy="2957195"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3222,26 +3515,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165:Q165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="50.5333333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3350,7 +3642,7 @@
         <v>709580</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3406,7 +3698,7 @@
         <v>2424844</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3462,7 +3754,7 @@
         <v>1649876</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3518,7 +3810,7 @@
         <v>1465372</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3574,7 +3866,7 @@
         <v>564100</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3630,7 +3922,7 @@
         <v>270592</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3686,7 +3978,7 @@
         <v>1888990</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3742,7 +4034,7 @@
         <v>1177879</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3798,7 +4090,7 @@
         <v>1366179</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3854,7 +4146,7 @@
         <v>922220</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3910,7 +4202,7 @@
         <v>2994493</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3966,7 +4258,7 @@
         <v>341169</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4022,7 +4314,7 @@
         <v>380975</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4078,7 +4370,7 @@
         <v>1729453</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4134,7 +4426,7 @@
         <v>924880</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4190,7 +4482,7 @@
         <v>675919</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4246,7 +4538,7 @@
         <v>1397481</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4302,7 +4594,7 @@
         <v>470355</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4358,7 +4650,7 @@
         <v>2071870</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4414,7 +4706,7 @@
         <v>2106697</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4470,7 +4762,7 @@
         <v>1587308</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4526,7 +4818,7 @@
         <v>279302</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4582,7 +4874,7 @@
         <v>2656651</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4638,7 +4930,7 @@
         <v>1419275</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4694,7 +4986,7 @@
         <v>1040104</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4750,7 +5042,7 @@
         <v>1761808</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4806,7 +5098,7 @@
         <v>385975</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4862,7 +5154,7 @@
         <v>985996</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4918,7 +5210,7 @@
         <v>886740</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4974,7 +5266,7 @@
         <v>1678908</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5030,7 +5322,7 @@
         <v>316408</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5086,7 +5378,7 @@
         <v>1544132</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5142,7 +5434,7 @@
         <v>298937</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5198,7 +5490,7 @@
         <v>751766</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -5254,7 +5546,7 @@
         <v>2031927</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -5310,7 +5602,7 @@
         <v>862617</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -5366,7 +5658,7 @@
         <v>1892805</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -5422,7 +5714,7 @@
         <v>2315418</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -5478,7 +5770,7 @@
         <v>1999793</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -5534,7 +5826,7 @@
         <v>2619982</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -5590,7 +5882,7 @@
         <v>738258</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -5646,7 +5938,7 @@
         <v>686063</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -5702,7 +5994,7 @@
         <v>269776</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5758,7 +6050,7 @@
         <v>1433544</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5814,7 +6106,7 @@
         <v>2205761</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5870,7 +6162,7 @@
         <v>675935</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5926,7 +6218,7 @@
         <v>1521750</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5982,7 +6274,7 @@
         <v>977247</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -6038,7 +6330,7 @@
         <v>1191504</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -6094,7 +6386,7 @@
         <v>1597511</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>53</v>
       </c>
@@ -6150,7 +6442,7 @@
         <v>440803</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>54</v>
       </c>
@@ -6206,7 +6498,7 @@
         <v>363507</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>55</v>
       </c>
@@ -6262,7 +6554,7 @@
         <v>720778</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>56</v>
       </c>
@@ -6318,7 +6610,7 @@
         <v>612912</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>57</v>
       </c>
@@ -6374,7 +6666,7 @@
         <v>354261</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>58</v>
       </c>
@@ -6430,7 +6722,7 @@
         <v>889603</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>59</v>
       </c>
@@ -6486,7 +6778,7 @@
         <v>1691876</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>60</v>
       </c>
@@ -6542,7 +6834,7 @@
         <v>1497227</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>61</v>
       </c>
@@ -6598,7 +6890,7 @@
         <v>1733162</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>63</v>
       </c>
@@ -6654,7 +6946,7 @@
         <v>595684</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>64</v>
       </c>
@@ -6710,7 +7002,7 @@
         <v>1576246</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>65</v>
       </c>
@@ -6766,7 +7058,7 @@
         <v>1166581</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>66</v>
       </c>
@@ -6822,7 +7114,7 @@
         <v>2401969</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>67</v>
       </c>
@@ -6878,7 +7170,7 @@
         <v>1434010</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>68</v>
       </c>
@@ -6934,7 +7226,7 @@
         <v>1147833</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>69</v>
       </c>
@@ -6990,7 +7282,7 @@
         <v>517847</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>70</v>
       </c>
@@ -7046,7 +7338,7 @@
         <v>1845741</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>71</v>
       </c>
@@ -7102,7 +7394,7 @@
         <v>2358049</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>72</v>
       </c>
@@ -7158,7 +7450,7 @@
         <v>1271189</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>73</v>
       </c>
@@ -7214,7 +7506,7 @@
         <v>1324777</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>74</v>
       </c>
@@ -7270,7 +7562,7 @@
         <v>324029</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>75</v>
       </c>
@@ -7326,7 +7618,7 @@
         <v>1668275</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>76</v>
       </c>
@@ -7382,7 +7674,7 @@
         <v>335640</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>77</v>
       </c>
@@ -7438,7 +7730,7 @@
         <v>1215138</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>78</v>
       </c>
@@ -7494,7 +7786,7 @@
         <v>442432</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>79</v>
       </c>
@@ -7550,7 +7842,7 @@
         <v>1232893</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>80</v>
       </c>
@@ -7606,7 +7898,7 @@
         <v>2222144</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>81</v>
       </c>
@@ -7662,7 +7954,7 @@
         <v>1647931</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>82</v>
       </c>
@@ -7718,7 +8010,7 @@
         <v>2234827</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>83</v>
       </c>
@@ -7774,7 +8066,7 @@
         <v>466266</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>84</v>
       </c>
@@ -7830,7 +8122,7 @@
         <v>1521770</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>85</v>
       </c>
@@ -7886,7 +8178,7 @@
         <v>561481</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>86</v>
       </c>
@@ -7942,7 +8234,7 @@
         <v>1576298</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>88</v>
       </c>
@@ -7998,7 +8290,7 @@
         <v>1073804</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>89</v>
       </c>
@@ -8054,7 +8346,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>90</v>
       </c>
@@ -8110,7 +8402,7 @@
         <v>2125024</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>92</v>
       </c>
@@ -8166,7 +8458,7 @@
         <v>1727822</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>93</v>
       </c>
@@ -8222,7 +8514,7 @@
         <v>3000983</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>94</v>
       </c>
@@ -8278,7 +8570,7 @@
         <v>1380533</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>95</v>
       </c>
@@ -8334,7 +8626,7 @@
         <v>1926308</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>96</v>
       </c>
@@ -8390,7 +8682,7 @@
         <v>1034376</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>97</v>
       </c>
@@ -8446,7 +8738,7 @@
         <v>1564532</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>98</v>
       </c>
@@ -8502,7 +8794,7 @@
         <v>1669443</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>99</v>
       </c>
@@ -8558,7 +8850,7 @@
         <v>3060000</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>100</v>
       </c>
@@ -8614,7 +8906,7 @@
         <v>1626083</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>101</v>
       </c>
@@ -8670,7 +8962,7 @@
         <v>1177381</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>102</v>
       </c>
@@ -8726,7 +9018,7 @@
         <v>1804142</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>103</v>
       </c>
@@ -8782,7 +9074,7 @@
         <v>399310</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>104</v>
       </c>
@@ -8838,7 +9130,7 @@
         <v>1021143</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>105</v>
       </c>
@@ -8894,7 +9186,7 @@
         <v>1917948</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>106</v>
       </c>
@@ -8950,7 +9242,7 @@
         <v>2085522</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>107</v>
       </c>
@@ -9006,7 +9298,7 @@
         <v>184324</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>108</v>
       </c>
@@ -9062,7 +9354,7 @@
         <v>997144</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>109</v>
       </c>
@@ -9118,7 +9410,7 @@
         <v>935477</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>110</v>
       </c>
@@ -9174,7 +9466,7 @@
         <v>1872513</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>111</v>
       </c>
@@ -9230,7 +9522,7 @@
         <v>430578</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>112</v>
       </c>
@@ -9286,7 +9578,7 @@
         <v>436543</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>113</v>
       </c>
@@ -9342,7 +9634,7 @@
         <v>575198</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>114</v>
       </c>
@@ -9398,7 +9690,7 @@
         <v>1239376</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>117</v>
       </c>
@@ -9454,7 +9746,7 @@
         <v>384862</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>118</v>
       </c>
@@ -9510,7 +9802,7 @@
         <v>1385470</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>119</v>
       </c>
@@ -9566,7 +9858,7 @@
         <v>1260463</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>120</v>
       </c>
@@ -9622,7 +9914,7 @@
         <v>569413</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>121</v>
       </c>
@@ -9678,7 +9970,7 @@
         <v>2202034</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>123</v>
       </c>
@@ -9734,7 +10026,7 @@
         <v>985409</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>124</v>
       </c>
@@ -9790,7 +10082,7 @@
         <v>1640909</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>125</v>
       </c>
@@ -9846,7 +10138,7 @@
         <v>2297756</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>126</v>
       </c>
@@ -9902,7 +10194,7 @@
         <v>724970</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>127</v>
       </c>
@@ -9958,7 +10250,7 @@
         <v>2290852</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>128</v>
       </c>
@@ -10014,7 +10306,7 @@
         <v>643452</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>129</v>
       </c>
@@ -10070,7 +10362,7 @@
         <v>1700938</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>130</v>
       </c>
@@ -10126,7 +10418,7 @@
         <v>1631508</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>131</v>
       </c>
@@ -10182,7 +10474,7 @@
         <v>1459580</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>133</v>
       </c>
@@ -10238,7 +10530,7 @@
         <v>1865769</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>134</v>
       </c>
@@ -10294,7 +10586,7 @@
         <v>1782559</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>135</v>
       </c>
@@ -10350,7 +10642,7 @@
         <v>464584</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>136</v>
       </c>
@@ -10406,7 +10698,7 @@
         <v>1016977</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>137</v>
       </c>
@@ -10462,7 +10754,7 @@
         <v>1815418</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>138</v>
       </c>
@@ -10518,7 +10810,7 @@
         <v>783543</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>139</v>
       </c>
@@ -10574,7 +10866,7 @@
         <v>692437</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>140</v>
       </c>
@@ -10630,7 +10922,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>142</v>
       </c>
@@ -10686,7 +10978,7 @@
         <v>1848763</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>143</v>
       </c>
@@ -10742,7 +11034,7 @@
         <v>359972</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>144</v>
       </c>
@@ -10798,7 +11090,7 @@
         <v>1432514</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>145</v>
       </c>
@@ -10854,7 +11146,7 @@
         <v>1834203</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>146</v>
       </c>
@@ -10910,7 +11202,7 @@
         <v>1552554</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>147</v>
       </c>
@@ -10966,7 +11258,7 @@
         <v>1044769</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>148</v>
       </c>
@@ -11022,7 +11314,7 @@
         <v>2477316</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>149</v>
       </c>
@@ -11078,7 +11370,7 @@
         <v>1424413</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>150</v>
       </c>
@@ -11134,7 +11426,7 @@
         <v>1437946</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>151</v>
       </c>
@@ -11190,7 +11482,7 @@
         <v>1184058</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>153</v>
       </c>
@@ -11246,7 +11538,7 @@
         <v>2763953</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>154</v>
       </c>
@@ -11302,7 +11594,7 @@
         <v>1361219</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>155</v>
       </c>
@@ -11358,7 +11650,7 @@
         <v>1604294</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>156</v>
       </c>
@@ -11414,7 +11706,7 @@
         <v>444002</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>157</v>
       </c>
@@ -11470,7 +11762,7 @@
         <v>397113</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>158</v>
       </c>
@@ -11526,7 +11818,7 @@
         <v>1337661</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>159</v>
       </c>
@@ -11582,7 +11874,7 @@
         <v>789730</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>141</v>
       </c>
@@ -11638,7 +11930,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>52</v>
       </c>
@@ -11694,7 +11986,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>91</v>
       </c>
@@ -11750,7 +12042,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>122</v>
       </c>
@@ -11806,7 +12098,7 @@
         <v>1243594</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>62</v>
       </c>
@@ -11862,7 +12154,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>115</v>
       </c>
@@ -11918,7 +12210,7 @@
         <v>1815985</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>7</v>
       </c>
@@ -11974,7 +12266,7 @@
         <v>1062254</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>35</v>
       </c>
@@ -12030,7 +12322,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>116</v>
       </c>
@@ -12086,7 +12378,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>152</v>
       </c>
@@ -12142,7 +12434,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>87</v>
       </c>
@@ -12198,7 +12490,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>132</v>
       </c>
@@ -12254,7 +12546,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="164" spans="3:17">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C164" s="1">
         <f t="shared" ref="C164:Q164" si="0">SUM(C2:C161)</f>
         <v>19137724</v>
@@ -12316,97 +12608,91 @@
         <v>4127977</v>
       </c>
     </row>
-    <row r="165" spans="3:17">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C165" s="2">
-        <f>SUM(C164)/SUM($C$164:$Q$164)</f>
-        <v>0.0681803672253666</v>
+        <f t="shared" ref="C165:Q165" si="1">SUM(C164)/SUM($C$164:$Q$164)</f>
+        <v>6.8180367225366606E-2</v>
       </c>
       <c r="D165" s="2">
-        <f>SUM(D164)/SUM($C$164:$Q$164)</f>
-        <v>0.276802463671717</v>
+        <f t="shared" si="1"/>
+        <v>0.27680246367171668</v>
       </c>
       <c r="E165" s="2">
-        <f>SUM(E164)/SUM($C$164:$Q$164)</f>
-        <v>0.196200728375475</v>
+        <f t="shared" si="1"/>
+        <v>0.19620072837547489</v>
       </c>
       <c r="F165" s="2">
-        <f>SUM(F164)/SUM($C$164:$Q$164)</f>
-        <v>0.0168624079683585</v>
+        <f t="shared" si="1"/>
+        <v>1.6862407968358493E-2</v>
       </c>
       <c r="G165" s="2">
-        <f>SUM(G164)/SUM($C$164:$Q$164)</f>
-        <v>0.0153070552000888</v>
+        <f t="shared" si="1"/>
+        <v>1.5307055200088786E-2</v>
       </c>
       <c r="H165" s="2">
-        <f>SUM(H164)/SUM($C$164:$Q$164)</f>
-        <v>0.00430179860250818</v>
+        <f t="shared" si="1"/>
+        <v>4.3017986025081847E-3</v>
       </c>
       <c r="I165" s="2">
-        <f>SUM(I164)/SUM($C$164:$Q$164)</f>
-        <v>0.0464731466799808</v>
+        <f t="shared" si="1"/>
+        <v>4.647314667998078E-2</v>
       </c>
       <c r="J165" s="2">
-        <f>SUM(J164)/SUM($C$164:$Q$164)</f>
-        <v>0.00814826634256169</v>
+        <f t="shared" si="1"/>
+        <v>8.1482663425616868E-3</v>
       </c>
       <c r="K165" s="2">
-        <f>SUM(K164)/SUM($C$164:$Q$164)</f>
-        <v>0.0281655847903531</v>
+        <f t="shared" si="1"/>
+        <v>2.8165584790353141E-2</v>
       </c>
       <c r="L165" s="2">
-        <f>SUM(L164)/SUM($C$164:$Q$164)</f>
-        <v>0.225505744733014</v>
+        <f t="shared" si="1"/>
+        <v>0.22550574473301382</v>
       </c>
       <c r="M165" s="2">
-        <f>SUM(M164)/SUM($C$164:$Q$164)</f>
-        <v>0.0303122427969171</v>
+        <f t="shared" si="1"/>
+        <v>3.0312242796917133E-2</v>
       </c>
       <c r="N165" s="2">
-        <f>SUM(N164)/SUM($C$164:$Q$164)</f>
-        <v>0.0158753815633296</v>
+        <f t="shared" si="1"/>
+        <v>1.587538156332961E-2</v>
       </c>
       <c r="O165" s="2">
-        <f>SUM(O164)/SUM($C$164:$Q$164)</f>
-        <v>0.026839090929767</v>
+        <f t="shared" si="1"/>
+        <v>2.6839090929767037E-2</v>
       </c>
       <c r="P165" s="2">
-        <f>SUM(P164)/SUM($C$164:$Q$164)</f>
-        <v>0.0263193230265229</v>
+        <f t="shared" si="1"/>
+        <v>2.6319323026522908E-2</v>
       </c>
       <c r="Q165" s="2">
-        <f>SUM(Q164)/SUM($C$164:$Q$164)</f>
-        <v>0.0147063980940402</v>
+        <f t="shared" si="1"/>
+        <v>1.4706398094040188E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R161">
-    <sortState ref="A1:R161">
-      <sortCondition ref="H1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:R161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R502"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A431" sqref="$A431:$XFD431"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A431" sqref="A431:XFD431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="50.5333333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12459,7 +12745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>14</v>
       </c>
@@ -12515,7 +12801,7 @@
         <v>1729453</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>24</v>
       </c>
@@ -12571,7 +12857,7 @@
         <v>1419275</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>41</v>
       </c>
@@ -12627,7 +12913,7 @@
         <v>2619982</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>44</v>
       </c>
@@ -12683,7 +12969,7 @@
         <v>269776</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>47</v>
       </c>
@@ -12739,7 +13025,7 @@
         <v>675935</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>54</v>
       </c>
@@ -12795,7 +13081,7 @@
         <v>363507</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>57</v>
       </c>
@@ -12851,7 +13137,7 @@
         <v>354261</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>63</v>
       </c>
@@ -12907,7 +13193,7 @@
         <v>595684</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>78</v>
       </c>
@@ -12963,7 +13249,7 @@
         <v>442432</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>94</v>
       </c>
@@ -13019,7 +13305,7 @@
         <v>1380533</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>99</v>
       </c>
@@ -13075,7 +13361,7 @@
         <v>3060000</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>104</v>
       </c>
@@ -13131,7 +13417,7 @@
         <v>1021143</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>106</v>
       </c>
@@ -13187,7 +13473,7 @@
         <v>2085522</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>112</v>
       </c>
@@ -13243,7 +13529,7 @@
         <v>436543</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>117</v>
       </c>
@@ -13299,7 +13585,7 @@
         <v>384862</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>135</v>
       </c>
@@ -13355,7 +13641,7 @@
         <v>464584</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>145</v>
       </c>
@@ -13411,7 +13697,7 @@
         <v>1834203</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>37</v>
       </c>
@@ -13467,7 +13753,7 @@
         <v>862617</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>28</v>
       </c>
@@ -13523,7 +13809,7 @@
         <v>985996</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>113</v>
       </c>
@@ -13579,7 +13865,7 @@
         <v>575198</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>84</v>
       </c>
@@ -13635,7 +13921,7 @@
         <v>1521770</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>150</v>
       </c>
@@ -13691,7 +13977,7 @@
         <v>1437946</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -13747,7 +14033,7 @@
         <v>709580</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>11</v>
       </c>
@@ -13803,7 +14089,7 @@
         <v>2994493</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>144</v>
       </c>
@@ -13859,7 +14145,7 @@
         <v>1432514</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>158</v>
       </c>
@@ -13915,7 +14201,7 @@
         <v>1337661</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>151</v>
       </c>
@@ -13971,7 +14257,7 @@
         <v>1184058</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>90</v>
       </c>
@@ -14027,7 +14313,7 @@
         <v>2125024</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>86</v>
       </c>
@@ -14083,7 +14369,7 @@
         <v>1576298</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>143</v>
       </c>
@@ -14139,7 +14425,7 @@
         <v>359972</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2</v>
       </c>
@@ -14195,7 +14481,7 @@
         <v>1649876</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>136</v>
       </c>
@@ -14251,7 +14537,7 @@
         <v>1016977</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>11</v>
       </c>
@@ -14307,7 +14593,7 @@
         <v>2994493</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>144</v>
       </c>
@@ -14363,7 +14649,7 @@
         <v>1432514</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>158</v>
       </c>
@@ -14419,7 +14705,7 @@
         <v>1337661</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>151</v>
       </c>
@@ -14475,7 +14761,7 @@
         <v>1184058</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>90</v>
       </c>
@@ -14531,7 +14817,7 @@
         <v>2125024</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>86</v>
       </c>
@@ -14587,7 +14873,7 @@
         <v>1576298</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>143</v>
       </c>
@@ -14643,7 +14929,7 @@
         <v>359972</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2</v>
       </c>
@@ -14699,7 +14985,7 @@
         <v>1649876</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>136</v>
       </c>
@@ -14755,7 +15041,7 @@
         <v>1016977</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>83</v>
       </c>
@@ -14811,7 +15097,7 @@
         <v>466266</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>68</v>
       </c>
@@ -14867,7 +15153,7 @@
         <v>1147833</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>68</v>
       </c>
@@ -14923,7 +15209,7 @@
         <v>1147833</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>49</v>
       </c>
@@ -14979,7 +15265,7 @@
         <v>977247</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>49</v>
       </c>
@@ -15035,7 +15321,7 @@
         <v>977247</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>159</v>
       </c>
@@ -15091,7 +15377,7 @@
         <v>789730</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>159</v>
       </c>
@@ -15147,7 +15433,7 @@
         <v>789730</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>17</v>
       </c>
@@ -15203,7 +15489,7 @@
         <v>1397481</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>17</v>
       </c>
@@ -15259,7 +15545,7 @@
         <v>1397481</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>107</v>
       </c>
@@ -15315,7 +15601,7 @@
         <v>184324</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>107</v>
       </c>
@@ -15371,7 +15657,7 @@
         <v>184324</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -15427,7 +15713,7 @@
         <v>2424844</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -15483,7 +15769,7 @@
         <v>2424844</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>17</v>
       </c>
@@ -15539,7 +15825,7 @@
         <v>1397481</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>17</v>
       </c>
@@ -15595,7 +15881,7 @@
         <v>1397481</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>107</v>
       </c>
@@ -15651,7 +15937,7 @@
         <v>184324</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>107</v>
       </c>
@@ -15707,7 +15993,7 @@
         <v>184324</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -15763,7 +16049,7 @@
         <v>2424844</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1</v>
       </c>
@@ -15819,7 +16105,7 @@
         <v>2424844</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>35</v>
       </c>
@@ -15875,7 +16161,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>35</v>
       </c>
@@ -15931,7 +16217,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>35</v>
       </c>
@@ -15987,7 +16273,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>35</v>
       </c>
@@ -16043,7 +16329,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>35</v>
       </c>
@@ -16099,7 +16385,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>35</v>
       </c>
@@ -16155,7 +16441,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>35</v>
       </c>
@@ -16211,7 +16497,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>35</v>
       </c>
@@ -16267,7 +16553,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>35</v>
       </c>
@@ -16323,7 +16609,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>35</v>
       </c>
@@ -16379,7 +16665,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>35</v>
       </c>
@@ -16435,7 +16721,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>35</v>
       </c>
@@ -16491,7 +16777,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>35</v>
       </c>
@@ -16547,7 +16833,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>35</v>
       </c>
@@ -16603,7 +16889,7 @@
         <v>1713218</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>116</v>
       </c>
@@ -16659,7 +16945,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>116</v>
       </c>
@@ -16715,7 +17001,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>116</v>
       </c>
@@ -16771,7 +17057,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>116</v>
       </c>
@@ -16827,7 +17113,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>116</v>
       </c>
@@ -16883,7 +17169,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>116</v>
       </c>
@@ -16939,7 +17225,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>116</v>
       </c>
@@ -16995,7 +17281,7 @@
         <v>2218131</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>87</v>
       </c>
@@ -17051,7 +17337,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>87</v>
       </c>
@@ -17107,7 +17393,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>87</v>
       </c>
@@ -17163,7 +17449,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>87</v>
       </c>
@@ -17219,7 +17505,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>87</v>
       </c>
@@ -17275,7 +17561,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17331,7 +17617,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -17387,7 +17673,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>132</v>
       </c>
@@ -17443,7 +17729,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>132</v>
       </c>
@@ -17499,7 +17785,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>132</v>
       </c>
@@ -17555,7 +17841,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>132</v>
       </c>
@@ -17611,7 +17897,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>132</v>
       </c>
@@ -17667,7 +17953,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>132</v>
       </c>
@@ -17723,7 +18009,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>132</v>
       </c>
@@ -17779,7 +18065,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>87</v>
       </c>
@@ -17835,7 +18121,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>87</v>
       </c>
@@ -17891,7 +18177,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>87</v>
       </c>
@@ -17947,7 +18233,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>87</v>
       </c>
@@ -18003,7 +18289,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>87</v>
       </c>
@@ -18059,7 +18345,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>87</v>
       </c>
@@ -18115,7 +18401,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>87</v>
       </c>
@@ -18171,7 +18457,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>132</v>
       </c>
@@ -18227,7 +18513,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>132</v>
       </c>
@@ -18283,7 +18569,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>132</v>
       </c>
@@ -18339,7 +18625,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>132</v>
       </c>
@@ -18395,7 +18681,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>132</v>
       </c>
@@ -18451,7 +18737,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>132</v>
       </c>
@@ -18507,7 +18793,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>132</v>
       </c>
@@ -18563,7 +18849,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>87</v>
       </c>
@@ -18619,7 +18905,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>87</v>
       </c>
@@ -18675,7 +18961,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>87</v>
       </c>
@@ -18731,7 +19017,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>87</v>
       </c>
@@ -18787,7 +19073,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>87</v>
       </c>
@@ -18843,7 +19129,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>87</v>
       </c>
@@ -18899,7 +19185,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>87</v>
       </c>
@@ -18955,7 +19241,7 @@
         <v>1338249</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>132</v>
       </c>
@@ -19011,7 +19297,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>132</v>
       </c>
@@ -19067,7 +19353,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>132</v>
       </c>
@@ -19123,7 +19409,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>132</v>
       </c>
@@ -19179,7 +19465,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>132</v>
       </c>
@@ -19235,7 +19521,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>132</v>
       </c>
@@ -19291,7 +19577,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>132</v>
       </c>
@@ -19347,7 +19633,7 @@
         <v>1052695</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>130</v>
       </c>
@@ -19403,7 +19689,7 @@
         <v>1631508</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>141</v>
       </c>
@@ -19459,7 +19745,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>141</v>
       </c>
@@ -19515,7 +19801,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>141</v>
       </c>
@@ -19571,7 +19857,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>141</v>
       </c>
@@ -19627,7 +19913,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>141</v>
       </c>
@@ -19683,7 +19969,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>141</v>
       </c>
@@ -19739,7 +20025,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>141</v>
       </c>
@@ -19795,7 +20081,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>62</v>
       </c>
@@ -19851,7 +20137,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>62</v>
       </c>
@@ -19907,7 +20193,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>62</v>
       </c>
@@ -19963,7 +20249,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>62</v>
       </c>
@@ -20019,7 +20305,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>62</v>
       </c>
@@ -20075,7 +20361,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>62</v>
       </c>
@@ -20131,7 +20417,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>62</v>
       </c>
@@ -20187,7 +20473,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>8</v>
       </c>
@@ -20243,7 +20529,7 @@
         <v>1177879</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>108</v>
       </c>
@@ -20299,7 +20585,7 @@
         <v>997144</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>108</v>
       </c>
@@ -20355,7 +20641,7 @@
         <v>997144</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>149</v>
       </c>
@@ -20411,7 +20697,7 @@
         <v>1424413</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>4</v>
       </c>
@@ -20467,7 +20753,7 @@
         <v>564100</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>33</v>
       </c>
@@ -20523,7 +20809,7 @@
         <v>298937</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>141</v>
       </c>
@@ -20579,7 +20865,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>141</v>
       </c>
@@ -20635,7 +20921,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>141</v>
       </c>
@@ -20691,7 +20977,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>141</v>
       </c>
@@ -20747,7 +21033,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>141</v>
       </c>
@@ -20803,7 +21089,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>141</v>
       </c>
@@ -20859,7 +21145,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>141</v>
       </c>
@@ -20915,7 +21201,7 @@
         <v>929514</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>62</v>
       </c>
@@ -20971,7 +21257,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>62</v>
       </c>
@@ -21027,7 +21313,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>62</v>
       </c>
@@ -21083,7 +21369,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>62</v>
       </c>
@@ -21139,7 +21425,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>62</v>
       </c>
@@ -21195,7 +21481,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>62</v>
       </c>
@@ -21251,7 +21537,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>62</v>
       </c>
@@ -21307,7 +21593,7 @@
         <v>1100328</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>8</v>
       </c>
@@ -21363,7 +21649,7 @@
         <v>1177879</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>108</v>
       </c>
@@ -21419,7 +21705,7 @@
         <v>997144</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>108</v>
       </c>
@@ -21475,7 +21761,7 @@
         <v>997144</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>149</v>
       </c>
@@ -21531,7 +21817,7 @@
         <v>1424413</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>4</v>
       </c>
@@ -21587,7 +21873,7 @@
         <v>564100</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>33</v>
       </c>
@@ -21643,7 +21929,7 @@
         <v>298937</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>142</v>
       </c>
@@ -21699,7 +21985,7 @@
         <v>1848763</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>142</v>
       </c>
@@ -21755,7 +22041,7 @@
         <v>1848763</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>128</v>
       </c>
@@ -21811,7 +22097,7 @@
         <v>643452</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>128</v>
       </c>
@@ -21867,7 +22153,7 @@
         <v>643452</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>128</v>
       </c>
@@ -21923,7 +22209,7 @@
         <v>643452</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>128</v>
       </c>
@@ -21979,7 +22265,7 @@
         <v>643452</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>79</v>
       </c>
@@ -22035,7 +22321,7 @@
         <v>1232893</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>79</v>
       </c>
@@ -22091,7 +22377,7 @@
         <v>1232893</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>79</v>
       </c>
@@ -22147,7 +22433,7 @@
         <v>1232893</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>79</v>
       </c>
@@ -22203,7 +22489,7 @@
         <v>1232893</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>16</v>
       </c>
@@ -22259,7 +22545,7 @@
         <v>675919</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>16</v>
       </c>
@@ -22315,7 +22601,7 @@
         <v>675919</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>16</v>
       </c>
@@ -22371,7 +22657,7 @@
         <v>675919</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>16</v>
       </c>
@@ -22427,7 +22713,7 @@
         <v>675919</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>53</v>
       </c>
@@ -22483,7 +22769,7 @@
         <v>440803</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>139</v>
       </c>
@@ -22539,7 +22825,7 @@
         <v>692437</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>139</v>
       </c>
@@ -22595,7 +22881,7 @@
         <v>692437</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>139</v>
       </c>
@@ -22651,7 +22937,7 @@
         <v>692437</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>139</v>
       </c>
@@ -22707,7 +22993,7 @@
         <v>692437</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>13</v>
       </c>
@@ -22763,7 +23049,7 @@
         <v>380975</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>65</v>
       </c>
@@ -22819,7 +23105,7 @@
         <v>1166581</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>129</v>
       </c>
@@ -22875,7 +23161,7 @@
         <v>1700938</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>93</v>
       </c>
@@ -22931,7 +23217,7 @@
         <v>3000983</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>19</v>
       </c>
@@ -22987,7 +23273,7 @@
         <v>2071870</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>123</v>
       </c>
@@ -23043,7 +23329,7 @@
         <v>985409</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>153</v>
       </c>
@@ -23099,7 +23385,7 @@
         <v>2763953</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>23</v>
       </c>
@@ -23155,7 +23441,7 @@
         <v>2656651</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>148</v>
       </c>
@@ -23211,7 +23497,7 @@
         <v>2477316</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>66</v>
       </c>
@@ -23267,7 +23553,7 @@
         <v>2401969</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>39</v>
       </c>
@@ -23323,7 +23609,7 @@
         <v>2315418</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>125</v>
       </c>
@@ -23379,7 +23665,7 @@
         <v>2297756</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>127</v>
       </c>
@@ -23435,7 +23721,7 @@
         <v>2290852</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>121</v>
       </c>
@@ -23491,7 +23777,7 @@
         <v>2202034</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>20</v>
       </c>
@@ -23547,7 +23833,7 @@
         <v>2106697</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>36</v>
       </c>
@@ -23603,7 +23889,7 @@
         <v>2031927</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>40</v>
       </c>
@@ -23659,7 +23945,7 @@
         <v>1999793</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>110</v>
       </c>
@@ -23715,7 +24001,7 @@
         <v>1872513</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>133</v>
       </c>
@@ -23771,7 +24057,7 @@
         <v>1865769</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>59</v>
       </c>
@@ -23827,7 +24113,7 @@
         <v>1691876</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>23</v>
       </c>
@@ -23883,7 +24169,7 @@
         <v>2656651</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>148</v>
       </c>
@@ -23939,7 +24225,7 @@
         <v>2477316</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>66</v>
       </c>
@@ -23995,7 +24281,7 @@
         <v>2401969</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>39</v>
       </c>
@@ -24051,7 +24337,7 @@
         <v>2315418</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>125</v>
       </c>
@@ -24107,7 +24393,7 @@
         <v>2297756</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>127</v>
       </c>
@@ -24163,7 +24449,7 @@
         <v>2290852</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>121</v>
       </c>
@@ -24219,7 +24505,7 @@
         <v>2202034</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>20</v>
       </c>
@@ -24275,7 +24561,7 @@
         <v>2106697</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>36</v>
       </c>
@@ -24331,7 +24617,7 @@
         <v>2031927</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>40</v>
       </c>
@@ -24387,7 +24673,7 @@
         <v>1999793</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>110</v>
       </c>
@@ -24443,7 +24729,7 @@
         <v>1872513</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>133</v>
       </c>
@@ -24499,7 +24785,7 @@
         <v>1865769</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>59</v>
       </c>
@@ -24555,7 +24841,7 @@
         <v>1691876</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>60</v>
       </c>
@@ -24611,7 +24897,7 @@
         <v>1497227</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>60</v>
       </c>
@@ -24667,7 +24953,7 @@
         <v>1497227</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>60</v>
       </c>
@@ -24723,7 +25009,7 @@
         <v>1497227</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>60</v>
       </c>
@@ -24779,7 +25065,7 @@
         <v>1497227</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>95</v>
       </c>
@@ -24835,7 +25121,7 @@
         <v>1926308</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>95</v>
       </c>
@@ -24891,7 +25177,7 @@
         <v>1926308</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>96</v>
       </c>
@@ -24947,7 +25233,7 @@
         <v>1034376</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>96</v>
       </c>
@@ -25003,7 +25289,7 @@
         <v>1034376</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>120</v>
       </c>
@@ -25059,7 +25345,7 @@
         <v>569413</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>85</v>
       </c>
@@ -25115,7 +25401,7 @@
         <v>561481</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>45</v>
       </c>
@@ -25171,7 +25457,7 @@
         <v>1433544</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>103</v>
       </c>
@@ -25227,7 +25513,7 @@
         <v>399310</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>134</v>
       </c>
@@ -25283,7 +25569,7 @@
         <v>1782559</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>43</v>
       </c>
@@ -25339,7 +25625,7 @@
         <v>686063</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>43</v>
       </c>
@@ -25395,7 +25681,7 @@
         <v>686063</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>156</v>
       </c>
@@ -25451,7 +25737,7 @@
         <v>444002</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>98</v>
       </c>
@@ -25507,7 +25793,7 @@
         <v>1669443</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>75</v>
       </c>
@@ -25563,7 +25849,7 @@
         <v>1668275</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>75</v>
       </c>
@@ -25619,7 +25905,7 @@
         <v>1668275</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>75</v>
       </c>
@@ -25675,7 +25961,7 @@
         <v>1668275</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>75</v>
       </c>
@@ -25731,7 +26017,7 @@
         <v>1668275</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>76</v>
       </c>
@@ -25787,7 +26073,7 @@
         <v>335640</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>76</v>
       </c>
@@ -25843,7 +26129,7 @@
         <v>335640</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>138</v>
       </c>
@@ -25899,7 +26185,7 @@
         <v>783543</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>138</v>
       </c>
@@ -25955,7 +26241,7 @@
         <v>783543</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>138</v>
       </c>
@@ -26011,7 +26297,7 @@
         <v>783543</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>138</v>
       </c>
@@ -26067,7 +26353,7 @@
         <v>783543</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>152</v>
       </c>
@@ -26123,7 +26409,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>152</v>
       </c>
@@ -26179,7 +26465,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>152</v>
       </c>
@@ -26235,7 +26521,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>152</v>
       </c>
@@ -26291,7 +26577,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>152</v>
       </c>
@@ -26347,7 +26633,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>152</v>
       </c>
@@ -26403,7 +26689,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>152</v>
       </c>
@@ -26459,7 +26745,7 @@
         <v>1005393</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>140</v>
       </c>
@@ -26515,7 +26801,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>140</v>
       </c>
@@ -26571,7 +26857,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>140</v>
       </c>
@@ -26627,7 +26913,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>140</v>
       </c>
@@ -26683,7 +26969,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>140</v>
       </c>
@@ -26739,7 +27025,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>140</v>
       </c>
@@ -26795,7 +27081,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>140</v>
       </c>
@@ -26851,7 +27137,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>140</v>
       </c>
@@ -26907,7 +27193,7 @@
         <v>1424154</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>102</v>
       </c>
@@ -26963,7 +27249,7 @@
         <v>1804142</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>102</v>
       </c>
@@ -27019,7 +27305,7 @@
         <v>1804142</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>102</v>
       </c>
@@ -27075,7 +27361,7 @@
         <v>1804142</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>102</v>
       </c>
@@ -27131,7 +27417,7 @@
         <v>1804142</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>56</v>
       </c>
@@ -27187,7 +27473,7 @@
         <v>612912</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>56</v>
       </c>
@@ -27243,7 +27529,7 @@
         <v>612912</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>56</v>
       </c>
@@ -27299,7 +27585,7 @@
         <v>612912</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>56</v>
       </c>
@@ -27355,7 +27641,7 @@
         <v>612912</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>52</v>
       </c>
@@ -27411,7 +27697,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>52</v>
       </c>
@@ -27467,7 +27753,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>52</v>
       </c>
@@ -27523,7 +27809,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>52</v>
       </c>
@@ -27579,7 +27865,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>52</v>
       </c>
@@ -27635,7 +27921,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>52</v>
       </c>
@@ -27691,7 +27977,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>52</v>
       </c>
@@ -27747,7 +28033,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>52</v>
       </c>
@@ -27803,7 +28089,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>52</v>
       </c>
@@ -27859,7 +28145,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>52</v>
       </c>
@@ -27915,7 +28201,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>52</v>
       </c>
@@ -27971,7 +28257,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>52</v>
       </c>
@@ -28027,7 +28313,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>52</v>
       </c>
@@ -28083,7 +28369,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>52</v>
       </c>
@@ -28139,7 +28425,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>52</v>
       </c>
@@ -28195,7 +28481,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>52</v>
       </c>
@@ -28251,7 +28537,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>52</v>
       </c>
@@ -28307,7 +28593,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>52</v>
       </c>
@@ -28363,7 +28649,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>52</v>
       </c>
@@ -28419,7 +28705,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>52</v>
       </c>
@@ -28475,7 +28761,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>52</v>
       </c>
@@ -28531,7 +28817,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>52</v>
       </c>
@@ -28587,7 +28873,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>52</v>
       </c>
@@ -28643,7 +28929,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>52</v>
       </c>
@@ -28699,7 +28985,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>52</v>
       </c>
@@ -28755,7 +29041,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>52</v>
       </c>
@@ -28811,7 +29097,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>52</v>
       </c>
@@ -28867,7 +29153,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>52</v>
       </c>
@@ -28923,7 +29209,7 @@
         <v>1196068</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>34</v>
       </c>
@@ -28979,7 +29265,7 @@
         <v>751766</v>
       </c>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>80</v>
       </c>
@@ -29035,7 +29321,7 @@
         <v>2222144</v>
       </c>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>80</v>
       </c>
@@ -29091,7 +29377,7 @@
         <v>2222144</v>
       </c>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>91</v>
       </c>
@@ -29147,7 +29433,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>91</v>
       </c>
@@ -29203,7 +29489,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>91</v>
       </c>
@@ -29259,7 +29545,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>91</v>
       </c>
@@ -29315,7 +29601,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>91</v>
       </c>
@@ -29371,7 +29657,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>91</v>
       </c>
@@ -29427,7 +29713,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="305" spans="1:18">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>91</v>
       </c>
@@ -29483,7 +29769,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="306" spans="1:18">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>91</v>
       </c>
@@ -29539,7 +29825,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="307" spans="1:18">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>91</v>
       </c>
@@ -29595,7 +29881,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="308" spans="1:18">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>91</v>
       </c>
@@ -29651,7 +29937,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="309" spans="1:18">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>91</v>
       </c>
@@ -29707,7 +29993,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="310" spans="1:18">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>91</v>
       </c>
@@ -29763,7 +30049,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="311" spans="1:18">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>91</v>
       </c>
@@ -29819,7 +30105,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="312" spans="1:18">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>91</v>
       </c>
@@ -29875,7 +30161,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="313" spans="1:18">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>91</v>
       </c>
@@ -29931,7 +30217,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="314" spans="1:18">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>91</v>
       </c>
@@ -29987,7 +30273,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="315" spans="1:18">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>91</v>
       </c>
@@ -30043,7 +30329,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="316" spans="1:18">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>91</v>
       </c>
@@ -30099,7 +30385,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="317" spans="1:18">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>91</v>
       </c>
@@ -30155,7 +30441,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="318" spans="1:18">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>91</v>
       </c>
@@ -30211,7 +30497,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>91</v>
       </c>
@@ -30267,7 +30553,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>91</v>
       </c>
@@ -30323,7 +30609,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>91</v>
       </c>
@@ -30379,7 +30665,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>91</v>
       </c>
@@ -30435,7 +30721,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>91</v>
       </c>
@@ -30491,7 +30777,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>91</v>
       </c>
@@ -30547,7 +30833,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>91</v>
       </c>
@@ -30603,7 +30889,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>91</v>
       </c>
@@ -30659,7 +30945,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>91</v>
       </c>
@@ -30715,7 +31001,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>91</v>
       </c>
@@ -30771,7 +31057,7 @@
         <v>1422315</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>147</v>
       </c>
@@ -30827,7 +31113,7 @@
         <v>1044769</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>147</v>
       </c>
@@ -30883,7 +31169,7 @@
         <v>1044769</v>
       </c>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>42</v>
       </c>
@@ -30939,7 +31225,7 @@
         <v>738258</v>
       </c>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>31</v>
       </c>
@@ -30995,7 +31281,7 @@
         <v>316408</v>
       </c>
     </row>
-    <row r="333" spans="1:18">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>31</v>
       </c>
@@ -31051,7 +31337,7 @@
         <v>316408</v>
       </c>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>89</v>
       </c>
@@ -31107,7 +31393,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="335" spans="1:18">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>89</v>
       </c>
@@ -31163,7 +31449,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>89</v>
       </c>
@@ -31219,7 +31505,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="337" spans="1:18">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>89</v>
       </c>
@@ -31275,7 +31561,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="338" spans="1:18">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>89</v>
       </c>
@@ -31331,7 +31617,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>89</v>
       </c>
@@ -31387,7 +31673,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="340" spans="1:18">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>89</v>
       </c>
@@ -31443,7 +31729,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="341" spans="1:18">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>89</v>
       </c>
@@ -31499,7 +31785,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="342" spans="1:18">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>89</v>
       </c>
@@ -31555,7 +31841,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="343" spans="1:18">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>89</v>
       </c>
@@ -31611,7 +31897,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>89</v>
       </c>
@@ -31667,7 +31953,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="345" spans="1:18">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>89</v>
       </c>
@@ -31723,7 +32009,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>89</v>
       </c>
@@ -31779,7 +32065,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="347" spans="1:18">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>89</v>
       </c>
@@ -31835,7 +32121,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>89</v>
       </c>
@@ -31891,7 +32177,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="349" spans="1:18">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>89</v>
       </c>
@@ -31947,7 +32233,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>89</v>
       </c>
@@ -32003,7 +32289,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="351" spans="1:18">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>89</v>
       </c>
@@ -32059,7 +32345,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="352" spans="1:18">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>89</v>
       </c>
@@ -32115,7 +32401,7 @@
         <v>1687316</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>111</v>
       </c>
@@ -32171,7 +32457,7 @@
         <v>430578</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>10</v>
       </c>
@@ -32227,7 +32513,7 @@
         <v>922220</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>10</v>
       </c>
@@ -32283,7 +32569,7 @@
         <v>922220</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>126</v>
       </c>
@@ -32339,7 +32625,7 @@
         <v>724970</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>67</v>
       </c>
@@ -32395,7 +32681,7 @@
         <v>1434010</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>67</v>
       </c>
@@ -32451,7 +32737,7 @@
         <v>1434010</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>67</v>
       </c>
@@ -32507,7 +32793,7 @@
         <v>1434010</v>
       </c>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>67</v>
       </c>
@@ -32563,7 +32849,7 @@
         <v>1434010</v>
       </c>
     </row>
-    <row r="361" spans="1:18">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>26</v>
       </c>
@@ -32619,7 +32905,7 @@
         <v>1761808</v>
       </c>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>26</v>
       </c>
@@ -32675,7 +32961,7 @@
         <v>1761808</v>
       </c>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>69</v>
       </c>
@@ -32731,7 +33017,7 @@
         <v>517847</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>146</v>
       </c>
@@ -32787,7 +33073,7 @@
         <v>1552554</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>146</v>
       </c>
@@ -32843,7 +33129,7 @@
         <v>1552554</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>146</v>
       </c>
@@ -32899,7 +33185,7 @@
         <v>1552554</v>
       </c>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>146</v>
       </c>
@@ -32955,7 +33241,7 @@
         <v>1552554</v>
       </c>
     </row>
-    <row r="368" spans="1:18">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>32</v>
       </c>
@@ -33011,7 +33297,7 @@
         <v>1544132</v>
       </c>
     </row>
-    <row r="369" spans="1:18">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>32</v>
       </c>
@@ -33067,7 +33353,7 @@
         <v>1544132</v>
       </c>
     </row>
-    <row r="370" spans="1:18">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>154</v>
       </c>
@@ -33123,7 +33409,7 @@
         <v>1361219</v>
       </c>
     </row>
-    <row r="371" spans="1:18">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>109</v>
       </c>
@@ -33179,7 +33465,7 @@
         <v>935477</v>
       </c>
     </row>
-    <row r="372" spans="1:18">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>109</v>
       </c>
@@ -33235,7 +33521,7 @@
         <v>935477</v>
       </c>
     </row>
-    <row r="373" spans="1:18">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>22</v>
       </c>
@@ -33291,7 +33577,7 @@
         <v>279302</v>
       </c>
     </row>
-    <row r="374" spans="1:18">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>22</v>
       </c>
@@ -33347,7 +33633,7 @@
         <v>279302</v>
       </c>
     </row>
-    <row r="375" spans="1:18">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>22</v>
       </c>
@@ -33403,7 +33689,7 @@
         <v>279302</v>
       </c>
     </row>
-    <row r="376" spans="1:18">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>22</v>
       </c>
@@ -33459,7 +33745,7 @@
         <v>279302</v>
       </c>
     </row>
-    <row r="377" spans="1:18">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>118</v>
       </c>
@@ -33515,7 +33801,7 @@
         <v>1385470</v>
       </c>
     </row>
-    <row r="378" spans="1:18">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>118</v>
       </c>
@@ -33571,7 +33857,7 @@
         <v>1385470</v>
       </c>
     </row>
-    <row r="379" spans="1:18">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>100</v>
       </c>
@@ -33627,7 +33913,7 @@
         <v>1626083</v>
       </c>
     </row>
-    <row r="380" spans="1:18">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>100</v>
       </c>
@@ -33683,7 +33969,7 @@
         <v>1626083</v>
       </c>
     </row>
-    <row r="381" spans="1:18">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>82</v>
       </c>
@@ -33739,7 +34025,7 @@
         <v>2234827</v>
       </c>
     </row>
-    <row r="382" spans="1:18">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>137</v>
       </c>
@@ -33795,7 +34081,7 @@
         <v>1815418</v>
       </c>
     </row>
-    <row r="383" spans="1:18">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>137</v>
       </c>
@@ -33851,7 +34137,7 @@
         <v>1815418</v>
       </c>
     </row>
-    <row r="384" spans="1:18">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>15</v>
       </c>
@@ -33907,7 +34193,7 @@
         <v>924880</v>
       </c>
     </row>
-    <row r="385" spans="1:18">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>15</v>
       </c>
@@ -33963,7 +34249,7 @@
         <v>924880</v>
       </c>
     </row>
-    <row r="386" spans="1:18">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>73</v>
       </c>
@@ -34019,7 +34305,7 @@
         <v>1324777</v>
       </c>
     </row>
-    <row r="387" spans="1:18">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>73</v>
       </c>
@@ -34075,7 +34361,7 @@
         <v>1324777</v>
       </c>
     </row>
-    <row r="388" spans="1:18">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>119</v>
       </c>
@@ -34131,7 +34417,7 @@
         <v>1260463</v>
       </c>
     </row>
-    <row r="389" spans="1:18">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>157</v>
       </c>
@@ -34187,7 +34473,7 @@
         <v>397113</v>
       </c>
     </row>
-    <row r="390" spans="1:18">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>48</v>
       </c>
@@ -34243,7 +34529,7 @@
         <v>1521750</v>
       </c>
     </row>
-    <row r="391" spans="1:18">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>48</v>
       </c>
@@ -34299,7 +34585,7 @@
         <v>1521750</v>
       </c>
     </row>
-    <row r="392" spans="1:18">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>48</v>
       </c>
@@ -34355,7 +34641,7 @@
         <v>1521750</v>
       </c>
     </row>
-    <row r="393" spans="1:18">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>48</v>
       </c>
@@ -34411,7 +34697,7 @@
         <v>1521750</v>
       </c>
     </row>
-    <row r="394" spans="1:18">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>77</v>
       </c>
@@ -34467,7 +34753,7 @@
         <v>1215138</v>
       </c>
     </row>
-    <row r="395" spans="1:18">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>58</v>
       </c>
@@ -34523,7 +34809,7 @@
         <v>889603</v>
       </c>
     </row>
-    <row r="396" spans="1:18">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>12</v>
       </c>
@@ -34579,7 +34865,7 @@
         <v>341169</v>
       </c>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>12</v>
       </c>
@@ -34635,7 +34921,7 @@
         <v>341169</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>92</v>
       </c>
@@ -34691,7 +34977,7 @@
         <v>1727822</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>92</v>
       </c>
@@ -34747,7 +35033,7 @@
         <v>1727822</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>30</v>
       </c>
@@ -34803,7 +35089,7 @@
         <v>1678908</v>
       </c>
     </row>
-    <row r="401" spans="1:18">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>30</v>
       </c>
@@ -34859,7 +35145,7 @@
         <v>1678908</v>
       </c>
     </row>
-    <row r="402" spans="1:18">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>18</v>
       </c>
@@ -34915,7 +35201,7 @@
         <v>470355</v>
       </c>
     </row>
-    <row r="403" spans="1:18">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>18</v>
       </c>
@@ -34971,7 +35257,7 @@
         <v>470355</v>
       </c>
     </row>
-    <row r="404" spans="1:18">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>81</v>
       </c>
@@ -35027,7 +35313,7 @@
         <v>1647931</v>
       </c>
     </row>
-    <row r="405" spans="1:18">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>81</v>
       </c>
@@ -35083,7 +35369,7 @@
         <v>1647931</v>
       </c>
     </row>
-    <row r="406" spans="1:18">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>81</v>
       </c>
@@ -35139,7 +35425,7 @@
         <v>1647931</v>
       </c>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>81</v>
       </c>
@@ -35195,7 +35481,7 @@
         <v>1647931</v>
       </c>
     </row>
-    <row r="408" spans="1:18">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>5</v>
       </c>
@@ -35251,7 +35537,7 @@
         <v>270592</v>
       </c>
     </row>
-    <row r="409" spans="1:18">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>5</v>
       </c>
@@ -35307,7 +35593,7 @@
         <v>270592</v>
       </c>
     </row>
-    <row r="410" spans="1:18">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>88</v>
       </c>
@@ -35363,7 +35649,7 @@
         <v>1073804</v>
       </c>
     </row>
-    <row r="411" spans="1:18">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>88</v>
       </c>
@@ -35419,7 +35705,7 @@
         <v>1073804</v>
       </c>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>61</v>
       </c>
@@ -35475,7 +35761,7 @@
         <v>1733162</v>
       </c>
     </row>
-    <row r="413" spans="1:18">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>61</v>
       </c>
@@ -35531,7 +35817,7 @@
         <v>1733162</v>
       </c>
     </row>
-    <row r="414" spans="1:18">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>131</v>
       </c>
@@ -35587,7 +35873,7 @@
         <v>1459580</v>
       </c>
     </row>
-    <row r="415" spans="1:18">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>38</v>
       </c>
@@ -35643,7 +35929,7 @@
         <v>1892805</v>
       </c>
     </row>
-    <row r="416" spans="1:18">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>101</v>
       </c>
@@ -35699,7 +35985,7 @@
         <v>1177381</v>
       </c>
     </row>
-    <row r="417" spans="1:18">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>27</v>
       </c>
@@ -35755,7 +36041,7 @@
         <v>385975</v>
       </c>
     </row>
-    <row r="418" spans="1:18">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>27</v>
       </c>
@@ -35811,7 +36097,7 @@
         <v>385975</v>
       </c>
     </row>
-    <row r="419" spans="1:18">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>21</v>
       </c>
@@ -35867,7 +36153,7 @@
         <v>1587308</v>
       </c>
     </row>
-    <row r="420" spans="1:18">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>72</v>
       </c>
@@ -35923,7 +36209,7 @@
         <v>1271189</v>
       </c>
     </row>
-    <row r="421" spans="1:18">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>72</v>
       </c>
@@ -35979,7 +36265,7 @@
         <v>1271189</v>
       </c>
     </row>
-    <row r="422" spans="1:18">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>97</v>
       </c>
@@ -36035,7 +36321,7 @@
         <v>1564532</v>
       </c>
     </row>
-    <row r="423" spans="1:18">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>3</v>
       </c>
@@ -36091,7 +36377,7 @@
         <v>1465372</v>
       </c>
     </row>
-    <row r="424" spans="1:18">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>29</v>
       </c>
@@ -36147,7 +36433,7 @@
         <v>886740</v>
       </c>
     </row>
-    <row r="425" spans="1:18">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>70</v>
       </c>
@@ -36203,7 +36489,7 @@
         <v>1845741</v>
       </c>
     </row>
-    <row r="426" spans="1:18">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>74</v>
       </c>
@@ -36259,7 +36545,7 @@
         <v>324029</v>
       </c>
     </row>
-    <row r="427" spans="1:18">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>74</v>
       </c>
@@ -36315,7 +36601,7 @@
         <v>324029</v>
       </c>
     </row>
-    <row r="428" spans="1:18">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>50</v>
       </c>
@@ -36371,7 +36657,7 @@
         <v>1191504</v>
       </c>
     </row>
-    <row r="429" spans="1:18">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>50</v>
       </c>
@@ -36427,7 +36713,7 @@
         <v>1191504</v>
       </c>
     </row>
-    <row r="430" ht="12.4" customHeight="1" spans="1:18">
+    <row r="430" spans="1:18" ht="12.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>29</v>
       </c>
@@ -36483,7 +36769,7 @@
         <v>886740</v>
       </c>
     </row>
-    <row r="431" spans="1:18">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>3</v>
       </c>
@@ -36539,7 +36825,7 @@
         <v>1465372</v>
       </c>
     </row>
-    <row r="501" spans="3:17">
+    <row r="501" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C501" s="1">
         <f t="shared" ref="C501:Q501" si="0">SUM(C2:C500)</f>
         <v>38860958</v>
@@ -36601,98 +36887,91 @@
         <v>16428111</v>
       </c>
     </row>
-    <row r="502" spans="3:17">
+    <row r="502" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C502" s="2">
         <f t="shared" ref="C502:Q502" si="1">SUM(C501)/SUM($C$501:$Q$501)</f>
-        <v>0.0515004122137948</v>
+        <v>5.1500412213794824E-2</v>
       </c>
       <c r="D502" s="2">
         <f t="shared" si="1"/>
-        <v>0.166111510282476</v>
+        <v>0.16611151028247639</v>
       </c>
       <c r="E502" s="2">
         <f t="shared" si="1"/>
-        <v>0.154502379005279</v>
+        <v>0.15450237900527905</v>
       </c>
       <c r="F502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0333717068208305</v>
+        <v>3.3371706820830453E-2</v>
       </c>
       <c r="G502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0491689667772736</v>
+        <v>4.9168966777273601E-2</v>
       </c>
       <c r="H502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0232385295741626</v>
+        <v>2.3238529574162562E-2</v>
       </c>
       <c r="I502" s="2">
         <f t="shared" si="1"/>
-        <v>0.031695442859555</v>
+        <v>3.1695442859555015E-2</v>
       </c>
       <c r="J502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0271440133063713</v>
+        <v>2.7144013306371267E-2</v>
       </c>
       <c r="K502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0231094464298186</v>
+        <v>2.3109446429818558E-2</v>
       </c>
       <c r="L502" s="2">
         <f t="shared" si="1"/>
-        <v>0.30757800779288</v>
+        <v>0.30757800779288047</v>
       </c>
       <c r="M502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0410679024955415</v>
+        <v>4.1067902495541507E-2</v>
       </c>
       <c r="N502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0206443457428787</v>
+        <v>2.0644345742878704E-2</v>
       </c>
       <c r="O502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0203556351351159</v>
+        <v>2.0355635135115919E-2</v>
       </c>
       <c r="P502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0287403780574324</v>
+        <v>2.8740378057432434E-2</v>
       </c>
       <c r="Q502" s="2">
         <f t="shared" si="1"/>
-        <v>0.0217713235065892</v>
+        <v>2.1771323506589238E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R431">
-    <sortState ref="A1:R431">
-      <sortCondition ref="O1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:R431" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="2" max="2" width="52.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -36745,7 +37024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6</v>
       </c>
@@ -36801,7 +37080,7 @@
         <v>1888990</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7</v>
       </c>
@@ -36857,7 +37136,7 @@
         <v>1062254</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9</v>
       </c>
@@ -36913,7 +37192,7 @@
         <v>1366179</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>25</v>
       </c>
@@ -36969,7 +37248,7 @@
         <v>1040104</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>46</v>
       </c>
@@ -37025,7 +37304,7 @@
         <v>2205761</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>51</v>
       </c>
@@ -37081,7 +37360,7 @@
         <v>1597511</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>55</v>
       </c>
@@ -37137,7 +37416,7 @@
         <v>720778</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>64</v>
       </c>
@@ -37193,7 +37472,7 @@
         <v>1576246</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>71</v>
       </c>
@@ -37249,7 +37528,7 @@
         <v>2358049</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>105</v>
       </c>
@@ -37305,7 +37584,7 @@
         <v>1917948</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>114</v>
       </c>
@@ -37361,7 +37640,7 @@
         <v>1239376</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>115</v>
       </c>
@@ -37417,7 +37696,7 @@
         <v>1815985</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>122</v>
       </c>
@@ -37473,7 +37752,7 @@
         <v>1243594</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>124</v>
       </c>
@@ -37529,7 +37808,7 @@
         <v>1640909</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>155</v>
       </c>
@@ -37585,7 +37864,7 @@
         <v>1604294</v>
       </c>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" ref="C20:Q20" si="0">SUM(C2:C19)</f>
         <v>551489</v>
@@ -37647,77 +37926,72 @@
         <v>762100</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C21" s="2">
         <f t="shared" ref="C21:Q21" si="1">SUM(C20)/SUM($C$20:$Q$20)</f>
-        <v>0.0243784132116926</v>
+        <v>2.4378413211692571E-2</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>0.123801842293319</v>
+        <v>0.12380184229331931</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.347444096730169</v>
+        <v>0.34744409673016852</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0128033205873463</v>
+        <v>1.280332058734626E-2</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0137863450048806</v>
+        <v>1.3786345004880643E-2</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>0.00701325460650688</v>
+        <v>7.0132546065068812E-3</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0342236869896069</v>
+        <v>3.4223686989606851E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0297558723972596</v>
+        <v>2.9755872397259627E-2</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0446027768870528</v>
+        <v>4.4602776887052803E-2</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>0.199727858102163</v>
+        <v>0.19972785810216256</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0688008790726134</v>
+        <v>6.8800879072613397E-2</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0157467798413422</v>
+        <v>1.574677984134221E-2</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0163413332371439</v>
+        <v>1.6341333237143877E-2</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0278851289243729</v>
+        <v>2.7885128924372896E-2</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="1"/>
-        <v>0.0336884121145316</v>
+        <v>3.3688412114531587E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R16">
-    <sortState ref="A1:R16">
-      <sortCondition ref="A1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:R16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>